--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -335,10 +335,10 @@
 OUTROS ENSAIOS</t>
   </si>
   <si>
-    <t>RODOLFO LUIZ DE MATOS</t>
-  </si>
-  <si>
-    <t>Matr.: 3416</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <t>IQ_END</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -183,9 +183,6 @@
     <t>DENIS MOREIRA DA SILVA</t>
   </si>
   <si>
-    <t>DANIELLE YNAYA DA S BARBOZA</t>
-  </si>
-  <si>
     <t>LENITA GOMES DA SILVA</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>265</t>
   </si>
   <si>
@@ -273,9 +273,6 @@
     <t>3247</t>
   </si>
   <si>
-    <t>3304</t>
-  </si>
-  <si>
     <t>3401</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>3743</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -159,9 +159,6 @@
     <t>ANDERSON FERREIRA DOS SANTOS</t>
   </si>
   <si>
-    <t>RAIMUNDO CLAUDIO S. SOUZA</t>
-  </si>
-  <si>
     <t>DANIEL RODRIGUES DE LIMA</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>265</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>2687</t>
   </si>
   <si>
-    <t>2755</t>
-  </si>
-  <si>
     <t>2924</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>3743</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -159,6 +159,9 @@
     <t>ANDERSON FERREIRA DOS SANTOS</t>
   </si>
   <si>
+    <t>ANA MIRA PIRES HOLLANDA</t>
+  </si>
+  <si>
     <t>DANIEL RODRIGUES DE LIMA</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>265</t>
   </si>
   <si>
@@ -249,6 +249,9 @@
     <t>2687</t>
   </si>
   <si>
+    <t>2797</t>
+  </si>
+  <si>
     <t>2924</t>
   </si>
   <si>
@@ -280,9 +283,6 @@
   </si>
   <si>
     <t>3743</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -150,9 +150,6 @@
     <t>IQ-DOC</t>
   </si>
   <si>
-    <t>JOEL DE S.BITTENCOURT</t>
-  </si>
-  <si>
     <t>SERGIO CONGO O.BOMFIM</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
     <t>LUIZ ANTONIO SANTOS DE ALMEIDA</t>
   </si>
   <si>
+    <t>RAIANE ASSIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>GIANCARLO MEDEIROS DE ALMEIDA*</t>
+  </si>
+  <si>
+    <t>MAE SILIVESTE BRASIL VILLAGELIM BIZERRA *</t>
+  </si>
+  <si>
+    <t>JOAO VICTOR PEREIRA DE CANHA*</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -231,18 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
     <t>1301</t>
   </si>
   <si>
@@ -285,13 +282,16 @@
     <t>3743</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
+    <t>4284</t>
+  </si>
+  <si>
+    <t>4270</t>
+  </si>
+  <si>
+    <t>4271</t>
+  </si>
+  <si>
+    <t>4277</t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -189,6 +189,9 @@
     <t>VICTOR CAETANO COUTO MALAQUIAS</t>
   </si>
   <si>
+    <t>ANDRE LUIZ RIBEIRO LEITE</t>
+  </si>
+  <si>
     <t>LUIZ ANTONIO SANTOS DE ALMEIDA</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>1301</t>
   </si>
   <si>
@@ -279,6 +279,9 @@
     <t>3537</t>
   </si>
   <si>
+    <t>3730</t>
+  </si>
+  <si>
     <t>3743</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
   </si>
   <si>
     <t>4277</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -180,9 +180,6 @@
     <t>DENIS MOREIRA DA SILVA</t>
   </si>
   <si>
-    <t>LENITA GOMES DA SILVA</t>
-  </si>
-  <si>
     <t>DENISON ARAUJO LOBATO</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1301</t>
   </si>
   <si>
@@ -270,9 +270,6 @@
     <t>3247</t>
   </si>
   <si>
-    <t>3401</t>
-  </si>
-  <si>
     <t>3403</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>4277</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -201,9 +201,6 @@
     <t>MAE SILIVESTE BRASIL VILLAGELIM BIZERRA *</t>
   </si>
   <si>
-    <t>JOAO VICTOR PEREIRA DE CANHA*</t>
-  </si>
-  <si>
     <t> </t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1301</t>
   </si>
   <si>
@@ -291,7 +291,7 @@
     <t>4271</t>
   </si>
   <si>
-    <t>4277</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END.XLSX
@@ -192,15 +192,15 @@
     <t>LUIZ ANTONIO SANTOS DE ALMEIDA</t>
   </si>
   <si>
-    <t>RAIANE ASSIS DOS SANTOS</t>
-  </si>
-  <si>
     <t>GIANCARLO MEDEIROS DE ALMEIDA*</t>
   </si>
   <si>
     <t>MAE SILIVESTE BRASIL VILLAGELIM BIZERRA *</t>
   </si>
   <si>
+    <t>RAIANE ASSIS DOS SANTOS*</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -282,13 +282,13 @@
     <t>3743</t>
   </si>
   <si>
+    <t>4270</t>
+  </si>
+  <si>
+    <t>4271</t>
+  </si>
+  <si>
     <t>4284</t>
-  </si>
-  <si>
-    <t>4270</t>
-  </si>
-  <si>
-    <t>4271</t>
   </si>
   <si>
     <t> </t>
